--- a/trunk/documents/my_performance.xlsx
+++ b/trunk/documents/my_performance.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Dinesh" sheetId="1" r:id="rId1"/>
+    <sheet name="Shankar" sheetId="3" r:id="rId1"/>
     <sheet name="Rohit" sheetId="2" r:id="rId2"/>
-    <sheet name="Shankar" sheetId="3" r:id="rId3"/>
+    <sheet name="Dinesh" sheetId="1" r:id="rId3"/>
+    <sheet name="Rohitash" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -21,19 +22,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>solved 8051 LCD board problem</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -43,7 +31,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>plastc moulders task insufficient data</t>
+          <t>Documentation seems to be satisfactory with sufficient informations, going in right direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1. Did not informed the  leave one day before
+2. Missed the skills evidance in document</t>
         </r>
       </text>
     </comment>
@@ -80,6 +82,19 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>solved 8051 LCD board problem</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -89,21 +104,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Documentation seems to be satisfactory with sufficient informations, going in right direction</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1. Did not informed the  leave one day before
-2. Missed the skills evidance in document</t>
+          <t>plastc moulders task insufficient data</t>
         </r>
       </text>
     </comment>
@@ -112,9 +113,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Performance Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday Holiday </t>
+  </si>
+  <si>
+    <t>Attendance (-1.5)</t>
+  </si>
+  <si>
+    <t>Holi Festival Holiday</t>
+  </si>
+  <si>
+    <t>On Leave</t>
+  </si>
+  <si>
+    <t>Attendance (-2.5)</t>
+  </si>
+  <si>
+    <t>Attendance (1.5)</t>
+  </si>
+  <si>
+    <t>7 leaves (salary deducted)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Attendance (2.0)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +175,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +185,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -182,6 +234,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,7 +290,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Dinesh Mar-2015</a:t>
+              <a:t>Mar-2015</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -280,11 +336,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dinesh!#REF!</c:f>
+              <c:f>Shankar!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Performance Index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -303,7 +359,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dinesh!$A$2:$A$32</c:f>
+              <c:f>Shankar!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="31"/>
@@ -405,12 +461,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dinesh!#REF!</c:f>
+              <c:f>Shankar!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,7 +493,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dinesh!#REF!</c:f>
+              <c:f>Shankar!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -445,7 +516,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dinesh!$A$2:$A$32</c:f>
+              <c:f>Shankar!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="31"/>
@@ -547,7 +618,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dinesh!#REF!</c:f>
+              <c:f>Shankar!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -564,11 +635,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dinesh!$B$1</c:f>
+              <c:f>Shankar!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Performance Index</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -587,7 +658,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dinesh!$A$2:$A$32</c:f>
+              <c:f>Shankar!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="31"/>
@@ -689,24 +760,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dinesh!$B$2:$B$32</c:f>
+              <c:f>Shankar!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,11 +781,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="254522608"/>
-        <c:axId val="254521432"/>
+        <c:axId val="249957416"/>
+        <c:axId val="249956632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254522608"/>
+        <c:axId val="249957416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,14 +822,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254521432"/>
+        <c:crossAx val="249956632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254521432"/>
+        <c:axId val="249956632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,7 +880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254522608"/>
+        <c:crossAx val="249957416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,11 +895,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="0"/>
+        <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="1"/>
+        <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
@@ -856,7 +915,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -945,7 +1004,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Rohit Mar-2015</a:t>
+              <a:t>Mar-2015</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1433,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="254515552"/>
-        <c:axId val="254518296"/>
+        <c:axId val="249952712"/>
+        <c:axId val="249957024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254515552"/>
+        <c:axId val="249952712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,14 +1533,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254518296"/>
+        <c:crossAx val="249957024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254518296"/>
+        <c:axId val="249957024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254515552"/>
+        <c:crossAx val="249952712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,7 +1715,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Shankar Mar-2015</a:t>
+              <a:t>Mar-2015</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1702,11 +1761,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Shankar!$B$1</c:f>
+              <c:f>Dinesh!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Performance Index</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1725,7 +1784,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Shankar!$A$2:$A$32</c:f>
+              <c:f>Dinesh!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1827,24 +1886,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Shankar!$B$2:$B$32</c:f>
+              <c:f>Dinesh!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,7 +1903,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Shankar!#REF!</c:f>
+              <c:f>Dinesh!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1879,7 +1926,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Shankar!$A$2:$A$32</c:f>
+              <c:f>Dinesh!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1981,7 +2028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Shankar!#REF!</c:f>
+              <c:f>Dinesh!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1998,11 +2045,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Shankar!#REF!</c:f>
+              <c:f>Dinesh!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Performance Index</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2021,7 +2068,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Shankar!$A$2:$A$32</c:f>
+              <c:f>Dinesh!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2123,12 +2170,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Shankar!#REF!</c:f>
+              <c:f>Dinesh!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,11 +2203,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="254521824"/>
-        <c:axId val="254521040"/>
+        <c:axId val="248568640"/>
+        <c:axId val="248566680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254521824"/>
+        <c:axId val="248568640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,14 +2244,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254521040"/>
+        <c:crossAx val="248566680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254521040"/>
+        <c:axId val="248566680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2302,721 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254521824"/>
+        <c:crossAx val="248568640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mar-2015</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rohitash!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Performance Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Rohitash!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42070</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Rohitash!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Shankar!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Rohitash!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42070</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Shankar!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Shankar!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Rohitash!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42070</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Shankar!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="249957808"/>
+        <c:axId val="249958592"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="249957808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249958592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="249958592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249957808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2452,6 +3225,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -3934,25 +4747,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4020,6 +5329,41 @@
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4330,190 +5674,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42064</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42065</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42066</v>
       </c>
       <c r="B4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42067</v>
       </c>
       <c r="B5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42068</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42069</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42070</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42071</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42072</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42073</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42074</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42075</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42076</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42077</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42078</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42079</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42080</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42081</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42082</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42083</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42084</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42085</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42086</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42087</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42088</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42089</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42090</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42091</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42092</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42093</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42094</v>
       </c>
@@ -4528,190 +5903,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42064</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42065</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42066</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42067</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42068</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42069</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42070</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42071</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42072</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42073</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42074</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42075</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42076</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42077</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42078</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42079</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42080</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42081</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42082</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42083</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42084</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42085</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42086</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42087</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42088</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42089</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42090</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42091</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42092</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42093</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42094</v>
       </c>
@@ -4726,190 +6133,448 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42065</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42066</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42067</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42068</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42069</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42072</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42079</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42086</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42090</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42093</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42064</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42065</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42066</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42067</v>
       </c>
       <c r="B5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42068</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42069</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42070</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42071</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42072</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42073</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42074</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42075</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42076</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42077</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42078</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42079</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42080</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42081</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42082</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42083</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42084</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42085</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42086</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42087</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42088</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42089</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42090</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42091</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42092</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42093</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="N31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42094</v>
       </c>
@@ -4918,6 +6583,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/trunk/documents/my_performance.xlsx
+++ b/trunk/documents/my_performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Shankar" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
             <family val="2"/>
           </rPr>
           <t>1. Did not informed the  leave one day before
-2. Missed the skills evidance in document</t>
+2. Missed the skills evidance in document, ignorance</t>
         </r>
       </text>
     </comment>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>Performance Index</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>Attendance (2.0)</t>
+  </si>
+  <si>
+    <t>Acheivable Target for this Month</t>
+  </si>
+  <si>
+    <t>PIC Microcontroller Complete</t>
+  </si>
+  <si>
+    <t>Home automation project Board Green PCB</t>
+  </si>
+  <si>
+    <t>Join 2 Students per week for regular course trainning</t>
   </si>
 </sst>
 </file>
@@ -225,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -238,6 +250,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,11 +808,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="249957416"/>
-        <c:axId val="249956632"/>
+        <c:axId val="261736872"/>
+        <c:axId val="261733344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="249957416"/>
+        <c:axId val="261736872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,14 +849,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249956632"/>
+        <c:crossAx val="261733344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="249956632"/>
+        <c:axId val="261733344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249957416"/>
+        <c:crossAx val="261736872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,11 +1519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="249952712"/>
-        <c:axId val="249957024"/>
+        <c:axId val="261729816"/>
+        <c:axId val="261731384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="249952712"/>
+        <c:axId val="261729816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,14 +1560,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249957024"/>
+        <c:crossAx val="261731384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="249957024"/>
+        <c:axId val="261731384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249952712"/>
+        <c:crossAx val="261729816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2203,11 +2230,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="248568640"/>
-        <c:axId val="248566680"/>
+        <c:axId val="261734912"/>
+        <c:axId val="263095328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="248568640"/>
+        <c:axId val="261734912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,14 +2271,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248566680"/>
+        <c:crossAx val="263095328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="248566680"/>
+        <c:axId val="263095328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248568640"/>
+        <c:crossAx val="261734912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2917,11 +2944,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="249957808"/>
-        <c:axId val="249958592"/>
+        <c:axId val="263096896"/>
+        <c:axId val="263092192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="249957808"/>
+        <c:axId val="263096896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,14 +2985,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249958592"/>
+        <c:crossAx val="263092192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="249958592"/>
+        <c:axId val="263092192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,7 +3043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249957808"/>
+        <c:crossAx val="263096896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5245,16 +5272,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5282,16 +5309,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5319,16 +5346,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5676,8 +5703,736 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42065</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42066</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42067</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42068</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42069</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42072</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42079</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42086</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42090</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42093</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42094</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N2:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="N2" sqref="N2:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="N2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42065</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42066</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42067</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42068</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42069</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42072</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42073</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42079</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42086</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42090</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42093</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42094</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N2:N6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="35.42578125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="N2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42065</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42066</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42067</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42068</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42069</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42072</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42079</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42086</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42089</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42090</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42093</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42094</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N2:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,692 +6450,6 @@
         <v>0</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42064</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42065</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42066</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42067</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42068</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42069</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42070</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42072</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42078</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>42079</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42080</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42086</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>42087</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>42089</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42090</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>42091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42092</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>42093</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42094</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42064</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42065</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42066</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42067</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42068</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42069</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42070</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42072</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42078</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>42079</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42080</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42086</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>42087</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>42089</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42090</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>42091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42092</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>42093</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42094</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
-    <col min="15" max="15" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42064</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42065</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42066</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42067</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42068</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42069</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42070</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42072</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42077</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42078</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>42079</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42080</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42086</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>42087</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>42089</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42090</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>42091</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42092</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>42093</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42094</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
